--- a/pregen_params.xlsx
+++ b/pregen_params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camillaucheomaenwereuzor/Desktop/RA IBL task/mouse version prova/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camillaucheomaenwereuzor/Desktop/RA IBL task/mouse version prova 16:4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E92E8F-FD5D-1B45-BFF8-EBEDA7D5C4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC0FE4F-6729-ED47-9DFB-9A62C96BA490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="1200" windowWidth="18860" windowHeight="14120" xr2:uid="{3A67A905-DECA-224C-82EF-F49C593B9270}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3A67A905-DECA-224C-82EF-F49C593B9270}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>eccentricity</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>og_q</t>
+  </si>
+  <si>
+    <t>bias</t>
   </si>
 </sst>
 </file>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8167DFEF-A8F9-4A4E-A083-13107821087B}">
-  <dimension ref="A1:G601"/>
+  <dimension ref="A1:H601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H401" sqref="H401"/>
+    <sheetView tabSelected="1" topLeftCell="A582" workbookViewId="0">
+      <selection activeCell="J597" sqref="J597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,7 +450,7 @@
     <col min="6" max="6" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -469,8 +472,11 @@
       <c r="G1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-35</v>
       </c>
@@ -495,8 +501,11 @@
         <f>C2</f>
         <v>0.61010396</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-35</v>
       </c>
@@ -521,8 +530,11 @@
         <f t="shared" ref="G3:G66" si="2">C3</f>
         <v>0.60337631999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-35</v>
       </c>
@@ -547,8 +559,11 @@
         <f t="shared" si="2"/>
         <v>0.61869806999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>35</v>
       </c>
@@ -573,8 +588,11 @@
         <f t="shared" si="2"/>
         <v>0.55997489</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-35</v>
       </c>
@@ -599,8 +617,11 @@
         <f t="shared" si="2"/>
         <v>0.67488689000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-35</v>
       </c>
@@ -625,8 +646,11 @@
         <f t="shared" si="2"/>
         <v>0.65214592999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-35</v>
       </c>
@@ -651,8 +675,11 @@
         <f t="shared" si="2"/>
         <v>0.48354059999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>35</v>
       </c>
@@ -677,8 +704,11 @@
         <f t="shared" si="2"/>
         <v>0.48355817000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-35</v>
       </c>
@@ -703,8 +733,11 @@
         <f t="shared" si="2"/>
         <v>0.67839508000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-35</v>
       </c>
@@ -729,8 +762,11 @@
         <f t="shared" si="2"/>
         <v>0.4548179</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-35</v>
       </c>
@@ -755,8 +791,11 @@
         <f t="shared" si="2"/>
         <v>0.43818731999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-35</v>
       </c>
@@ -781,8 +820,11 @@
         <f t="shared" si="2"/>
         <v>0.57351390999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>35</v>
       </c>
@@ -807,8 +849,11 @@
         <f t="shared" si="2"/>
         <v>0.67493709999999996</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>35</v>
       </c>
@@ -833,8 +878,11 @@
         <f t="shared" si="2"/>
         <v>0.49087797999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>35</v>
       </c>
@@ -859,8 +907,11 @@
         <f t="shared" si="2"/>
         <v>0.67841513200000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-35</v>
       </c>
@@ -885,8 +936,11 @@
         <f t="shared" si="2"/>
         <v>0.57403837000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-35</v>
       </c>
@@ -911,8 +965,11 @@
         <f t="shared" si="2"/>
         <v>0.52894613000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-35</v>
       </c>
@@ -937,8 +994,11 @@
         <f t="shared" si="2"/>
         <v>0.40628185999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>35</v>
       </c>
@@ -963,8 +1023,11 @@
         <f t="shared" si="2"/>
         <v>0.43629844000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>35</v>
       </c>
@@ -989,8 +1052,11 @@
         <f t="shared" si="2"/>
         <v>0.60033756999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-35</v>
       </c>
@@ -1015,8 +1081,11 @@
         <f t="shared" si="2"/>
         <v>0.63910948999999995</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>35</v>
       </c>
@@ -1041,8 +1110,11 @@
         <f t="shared" si="2"/>
         <v>0.56888494000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-35</v>
       </c>
@@ -1067,8 +1139,11 @@
         <f t="shared" si="2"/>
         <v>0.46916938000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-35</v>
       </c>
@@ -1093,8 +1168,11 @@
         <f t="shared" si="2"/>
         <v>0.60872325999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-35</v>
       </c>
@@ -1119,8 +1197,11 @@
         <f t="shared" si="2"/>
         <v>0.52663212999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>35</v>
       </c>
@@ -1145,8 +1226,11 @@
         <f t="shared" si="2"/>
         <v>0.49897525999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>35</v>
       </c>
@@ -1171,8 +1255,11 @@
         <f t="shared" si="2"/>
         <v>0.50972008000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>35</v>
       </c>
@@ -1197,8 +1284,11 @@
         <f t="shared" si="2"/>
         <v>0.42455412999999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-35</v>
       </c>
@@ -1223,8 +1313,11 @@
         <f t="shared" si="2"/>
         <v>0.69883936999999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-35</v>
       </c>
@@ -1249,8 +1342,11 @@
         <f t="shared" si="2"/>
         <v>0.40233349000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-35</v>
       </c>
@@ -1275,8 +1371,11 @@
         <f t="shared" si="2"/>
         <v>0.40274645999999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>35</v>
       </c>
@@ -1301,8 +1400,11 @@
         <f t="shared" si="2"/>
         <v>0.63727836000000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>35</v>
       </c>
@@ -1327,8 +1429,11 @@
         <f t="shared" si="2"/>
         <v>0.63132080999999995</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -1353,8 +1458,11 @@
         <f t="shared" si="2"/>
         <v>0.49078951999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-35</v>
       </c>
@@ -1379,8 +1487,11 @@
         <f t="shared" si="2"/>
         <v>0.55240204999999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1405,8 +1516,11 @@
         <f t="shared" si="2"/>
         <v>0.49981824000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>-35</v>
       </c>
@@ -1431,8 +1545,11 @@
         <f t="shared" si="2"/>
         <v>0.67386826</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>35</v>
       </c>
@@ -1457,8 +1574,11 @@
         <f t="shared" si="2"/>
         <v>0.49149552000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>35</v>
       </c>
@@ -1483,8 +1603,11 @@
         <f t="shared" si="2"/>
         <v>0.51755167000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>35</v>
       </c>
@@ -1509,8 +1632,11 @@
         <f t="shared" si="2"/>
         <v>0.47642853000000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>35</v>
       </c>
@@ -1535,8 +1661,11 @@
         <f t="shared" si="2"/>
         <v>0.42273453</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>35</v>
       </c>
@@ -1561,8 +1690,11 @@
         <f t="shared" si="2"/>
         <v>0.60050055999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-35</v>
       </c>
@@ -1587,8 +1719,11 @@
         <f t="shared" si="2"/>
         <v>0.43358542</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>-35</v>
       </c>
@@ -1613,8 +1748,11 @@
         <f t="shared" si="2"/>
         <v>0.42642648</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-35</v>
       </c>
@@ -1639,8 +1777,11 @@
         <f t="shared" si="2"/>
         <v>0.54159986999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>35</v>
       </c>
@@ -1665,8 +1806,11 @@
         <f t="shared" si="2"/>
         <v>0.45696221999999997</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>-35</v>
       </c>
@@ -1691,8 +1835,11 @@
         <f t="shared" si="2"/>
         <v>0.49718837999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>35</v>
       </c>
@@ -1717,8 +1864,11 @@
         <f t="shared" si="2"/>
         <v>0.49367116999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>-35</v>
       </c>
@@ -1743,8 +1893,11 @@
         <f t="shared" si="2"/>
         <v>0.60764611999999996</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-35</v>
       </c>
@@ -1769,8 +1922,11 @@
         <f t="shared" si="2"/>
         <v>0.45811626999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-35</v>
       </c>
@@ -1795,8 +1951,11 @@
         <f t="shared" si="2"/>
         <v>0.40290730000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>35</v>
       </c>
@@ -1821,8 +1980,11 @@
         <f t="shared" si="2"/>
         <v>0.65759825000000005</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>-35</v>
       </c>
@@ -1847,8 +2009,11 @@
         <f t="shared" si="2"/>
         <v>0.58988653000000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>35</v>
       </c>
@@ -1873,8 +2038,11 @@
         <f t="shared" si="2"/>
         <v>0.67867803999999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>35</v>
       </c>
@@ -1899,8 +2067,11 @@
         <f t="shared" si="2"/>
         <v>0.56386857000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>-35</v>
       </c>
@@ -1925,8 +2096,11 @@
         <f t="shared" si="2"/>
         <v>0.43782547999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>-35</v>
       </c>
@@ -1951,8 +2125,11 @@
         <f t="shared" si="2"/>
         <v>0.56973074999999995</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>35</v>
       </c>
@@ -1977,8 +2154,11 @@
         <f t="shared" si="2"/>
         <v>0.49067889999999997</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>-35</v>
       </c>
@@ -2003,8 +2183,11 @@
         <f t="shared" si="2"/>
         <v>0.67067083000000005</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>35</v>
       </c>
@@ -2029,8 +2212,11 @@
         <f t="shared" si="2"/>
         <v>0.60373885999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>35</v>
       </c>
@@ -2055,8 +2241,11 @@
         <f t="shared" si="2"/>
         <v>0.61638382000000003</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>35</v>
       </c>
@@ -2081,8 +2270,11 @@
         <f t="shared" si="2"/>
         <v>0.57643297999999998</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>-35</v>
       </c>
@@ -2107,8 +2299,11 @@
         <f t="shared" si="2"/>
         <v>0.64188509000000005</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>35</v>
       </c>
@@ -2133,8 +2328,11 @@
         <f t="shared" si="2"/>
         <v>0.67947798000000004</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>35</v>
       </c>
@@ -2159,8 +2357,11 @@
         <f t="shared" si="2"/>
         <v>0.42911885</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>35</v>
       </c>
@@ -2185,8 +2386,11 @@
         <f t="shared" ref="G67:G130" si="5">C67</f>
         <v>0.63098569000000004</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>-35</v>
       </c>
@@ -2211,8 +2415,11 @@
         <f t="shared" si="5"/>
         <v>0.44760715000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>35</v>
       </c>
@@ -2237,8 +2444,11 @@
         <f t="shared" si="5"/>
         <v>0.45551976999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>35</v>
       </c>
@@ -2263,8 +2473,11 @@
         <f t="shared" si="5"/>
         <v>0.58222739999999995</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>-35</v>
       </c>
@@ -2289,8 +2502,11 @@
         <f t="shared" si="5"/>
         <v>0.55313986999999998</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>35</v>
       </c>
@@ -2315,8 +2531,11 @@
         <f t="shared" si="5"/>
         <v>0.52262222000000003</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>35</v>
       </c>
@@ -2341,8 +2560,11 @@
         <f t="shared" si="5"/>
         <v>0.65082410000000002</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>35</v>
       </c>
@@ -2367,8 +2589,11 @@
         <f t="shared" si="5"/>
         <v>0.57773859999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>-35</v>
       </c>
@@ -2393,8 +2618,11 @@
         <f t="shared" si="5"/>
         <v>0.63625869000000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>-35</v>
       </c>
@@ -2419,8 +2647,11 @@
         <f t="shared" si="5"/>
         <v>0.47836885000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>35</v>
       </c>
@@ -2445,8 +2676,11 @@
         <f t="shared" si="5"/>
         <v>0.49233764000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>35</v>
       </c>
@@ -2471,8 +2705,11 @@
         <f t="shared" si="5"/>
         <v>0.63169582999999996</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>35</v>
       </c>
@@ -2497,8 +2734,11 @@
         <f t="shared" si="5"/>
         <v>0.41863810000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>-35</v>
       </c>
@@ -2523,8 +2763,11 @@
         <f t="shared" si="5"/>
         <v>0.57264760000000003</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>35</v>
       </c>
@@ -2549,8 +2792,11 @@
         <f t="shared" si="5"/>
         <v>0.44654671000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>-35</v>
       </c>
@@ -2575,8 +2821,11 @@
         <f t="shared" si="5"/>
         <v>0.55042431000000003</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>35</v>
       </c>
@@ -2601,8 +2850,11 @@
         <f t="shared" si="5"/>
         <v>0.44991984000000002</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>-35</v>
       </c>
@@ -2627,8 +2879,11 @@
         <f t="shared" si="5"/>
         <v>0.60736128</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>-35</v>
       </c>
@@ -2653,8 +2908,11 @@
         <f t="shared" si="5"/>
         <v>0.62743347999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>-35</v>
       </c>
@@ -2679,8 +2937,11 @@
         <f t="shared" si="5"/>
         <v>0.42695482000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>-35</v>
       </c>
@@ -2705,8 +2966,11 @@
         <f t="shared" si="5"/>
         <v>0.53741614000000004</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>35</v>
       </c>
@@ -2731,8 +2995,11 @@
         <f t="shared" si="5"/>
         <v>0.43225202000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>35</v>
       </c>
@@ -2757,8 +3024,11 @@
         <f t="shared" si="5"/>
         <v>0.64053457000000003</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>35</v>
       </c>
@@ -2783,8 +3053,11 @@
         <f t="shared" si="5"/>
         <v>0.45354203999999998</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>-35</v>
       </c>
@@ -2809,8 +3082,11 @@
         <f t="shared" si="5"/>
         <v>0.59663054000000004</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>35</v>
       </c>
@@ -2835,8 +3111,11 @@
         <f t="shared" si="5"/>
         <v>0.45498635999999998</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>-35</v>
       </c>
@@ -2861,8 +3140,11 @@
         <f t="shared" si="5"/>
         <v>0.46514422</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>-35</v>
       </c>
@@ -2887,8 +3169,11 @@
         <f t="shared" si="5"/>
         <v>0.66520126000000002</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>-35</v>
       </c>
@@ -2913,8 +3198,11 @@
         <f t="shared" si="5"/>
         <v>0.67115568999999997</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>-35</v>
       </c>
@@ -2939,8 +3227,11 @@
         <f t="shared" si="5"/>
         <v>0.63510350999999998</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>-35</v>
       </c>
@@ -2965,8 +3256,11 @@
         <f t="shared" si="5"/>
         <v>0.41851304</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>35</v>
       </c>
@@ -2991,8 +3285,11 @@
         <f t="shared" si="5"/>
         <v>0.66399865000000002</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H98">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>-35</v>
       </c>
@@ -3017,8 +3314,11 @@
         <f t="shared" si="5"/>
         <v>0.55608080000000004</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H99">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>-35</v>
       </c>
@@ -3043,8 +3343,11 @@
         <f t="shared" si="5"/>
         <v>0.51876487000000004</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H100">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>-35</v>
       </c>
@@ -3069,8 +3372,11 @@
         <f t="shared" si="5"/>
         <v>0.47912416000000002</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H101">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>-35</v>
       </c>
@@ -3095,8 +3401,11 @@
         <f t="shared" si="5"/>
         <v>0.51891759000000004</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H102">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>-35</v>
       </c>
@@ -3121,8 +3430,11 @@
         <f t="shared" si="5"/>
         <v>0.61439202999999998</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H103">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>-35</v>
       </c>
@@ -3147,8 +3459,11 @@
         <f t="shared" si="5"/>
         <v>0.48255346999999998</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H104">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>-35</v>
       </c>
@@ -3173,8 +3488,11 @@
         <f t="shared" si="5"/>
         <v>0.52610769000000002</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H105">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>-35</v>
       </c>
@@ -3199,8 +3517,11 @@
         <f t="shared" si="5"/>
         <v>0.42711892000000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H106">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>35</v>
       </c>
@@ -3225,8 +3546,11 @@
         <f t="shared" si="5"/>
         <v>0.60771286000000002</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H107">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>-35</v>
       </c>
@@ -3251,8 +3575,11 @@
         <f t="shared" si="5"/>
         <v>0.56201151000000005</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H108">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>-35</v>
       </c>
@@ -3277,8 +3604,11 @@
         <f t="shared" si="5"/>
         <v>0.42296981</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H109">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>-35</v>
       </c>
@@ -3303,8 +3633,11 @@
         <f t="shared" si="5"/>
         <v>0.43626964000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H110">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>-35</v>
       </c>
@@ -3329,8 +3662,11 @@
         <f t="shared" si="5"/>
         <v>0.43087252999999998</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H111">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>-35</v>
       </c>
@@ -3355,8 +3691,11 @@
         <f t="shared" si="5"/>
         <v>0.47595580999999998</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H112">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>-35</v>
       </c>
@@ -3381,8 +3720,11 @@
         <f t="shared" si="5"/>
         <v>0.55066250000000005</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H113">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>-35</v>
       </c>
@@ -3407,8 +3749,11 @@
         <f t="shared" si="5"/>
         <v>0.60793907999999997</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H114">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>35</v>
       </c>
@@ -3433,8 +3778,11 @@
         <f t="shared" si="5"/>
         <v>0.50794724999999996</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H115">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>-35</v>
       </c>
@@ -3459,8 +3807,11 @@
         <f t="shared" si="5"/>
         <v>0.45786190999999998</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>-35</v>
       </c>
@@ -3485,8 +3836,11 @@
         <f t="shared" si="5"/>
         <v>0.452606436</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H117">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>-35</v>
       </c>
@@ -3511,8 +3865,11 @@
         <f t="shared" si="5"/>
         <v>0.58123948000000003</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H118">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>-35</v>
       </c>
@@ -3537,8 +3894,11 @@
         <f t="shared" si="5"/>
         <v>0.43575034000000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H119">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>35</v>
       </c>
@@ -3563,8 +3923,11 @@
         <f t="shared" si="5"/>
         <v>0.45857460999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H120">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>-35</v>
       </c>
@@ -3589,8 +3952,11 @@
         <f t="shared" si="5"/>
         <v>0.56931810000000005</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H121">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>35</v>
       </c>
@@ -3615,8 +3981,11 @@
         <f t="shared" si="5"/>
         <v>0.45421721999999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H122">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>35</v>
       </c>
@@ -3641,8 +4010,11 @@
         <f t="shared" si="5"/>
         <v>0.55179531000000004</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H123">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>-35</v>
       </c>
@@ -3667,8 +4039,11 @@
         <f t="shared" si="5"/>
         <v>0.51378568000000002</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H124">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>35</v>
       </c>
@@ -3693,8 +4068,11 @@
         <f t="shared" si="5"/>
         <v>0.57337521000000002</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H125">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>-35</v>
       </c>
@@ -3719,8 +4097,11 @@
         <f t="shared" si="5"/>
         <v>0.48836563</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H126">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>35</v>
       </c>
@@ -3745,8 +4126,11 @@
         <f t="shared" si="5"/>
         <v>0.46366485000000002</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H127">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>35</v>
       </c>
@@ -3771,8 +4155,11 @@
         <f t="shared" si="5"/>
         <v>0.64569372999999997</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H128">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>-35</v>
       </c>
@@ -3797,8 +4184,11 @@
         <f t="shared" si="5"/>
         <v>0.41857053999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H129">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>35</v>
       </c>
@@ -3823,8 +4213,11 @@
         <f t="shared" si="5"/>
         <v>0.60770701000000005</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H130">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>35</v>
       </c>
@@ -3849,8 +4242,11 @@
         <f t="shared" ref="G131:G194" si="8">C131</f>
         <v>0.44150092000000002</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H131">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>35</v>
       </c>
@@ -3875,8 +4271,11 @@
         <f t="shared" si="8"/>
         <v>0.42175381000000001</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H132">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>35</v>
       </c>
@@ -3901,8 +4300,11 @@
         <f t="shared" si="8"/>
         <v>0.64991308000000003</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H133">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>-35</v>
       </c>
@@ -3927,8 +4329,11 @@
         <f t="shared" si="8"/>
         <v>0.44028848999999998</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H134">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>35</v>
       </c>
@@ -3953,8 +4358,11 @@
         <f t="shared" si="8"/>
         <v>0.57075741000000002</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H135">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>35</v>
       </c>
@@ -3979,8 +4387,11 @@
         <f t="shared" si="8"/>
         <v>0.44516303400000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H136">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>35</v>
       </c>
@@ -4005,8 +4416,11 @@
         <f t="shared" si="8"/>
         <v>0.52646939000000004</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H137">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>35</v>
       </c>
@@ -4031,8 +4445,11 @@
         <f t="shared" si="8"/>
         <v>0.51558674000000004</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H138">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>-35</v>
       </c>
@@ -4057,8 +4474,11 @@
         <f t="shared" si="8"/>
         <v>0.47098876000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H139">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>-35</v>
       </c>
@@ -4083,8 +4503,11 @@
         <f t="shared" si="8"/>
         <v>0.52063641000000005</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H140">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>-35</v>
       </c>
@@ -4109,8 +4532,11 @@
         <f t="shared" si="8"/>
         <v>0.40060400000000002</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H141">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>35</v>
       </c>
@@ -4135,8 +4561,11 @@
         <f t="shared" si="8"/>
         <v>0.50444449000000002</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H142">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>35</v>
       </c>
@@ -4161,8 +4590,11 @@
         <f t="shared" si="8"/>
         <v>0.40044516000000002</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H143">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>35</v>
       </c>
@@ -4187,8 +4619,11 @@
         <f t="shared" si="8"/>
         <v>0.63282822000000005</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H144">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>35</v>
       </c>
@@ -4213,8 +4648,11 @@
         <f t="shared" si="8"/>
         <v>0.46286442</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H145">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>35</v>
       </c>
@@ -4239,8 +4677,11 @@
         <f t="shared" si="8"/>
         <v>0.64437038000000002</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H146">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>35</v>
       </c>
@@ -4265,8 +4706,11 @@
         <f t="shared" si="8"/>
         <v>0.44662698000000001</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H147">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>35</v>
       </c>
@@ -4291,8 +4735,11 @@
         <f t="shared" si="8"/>
         <v>0.52542686999999999</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H148">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>35</v>
       </c>
@@ -4317,8 +4764,11 @@
         <f t="shared" si="8"/>
         <v>0.60440240000000001</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H149">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>-35</v>
       </c>
@@ -4343,8 +4793,11 @@
         <f t="shared" si="8"/>
         <v>0.54986250000000003</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H150">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>35</v>
       </c>
@@ -4369,8 +4822,11 @@
         <f t="shared" si="8"/>
         <v>0.457985692</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H151">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>35</v>
       </c>
@@ -4395,8 +4851,11 @@
         <f t="shared" si="8"/>
         <v>0.43904928999999998</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H152">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>35</v>
       </c>
@@ -4421,8 +4880,11 @@
         <f t="shared" si="8"/>
         <v>0.40448722999999998</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H153">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>35</v>
       </c>
@@ -4447,8 +4909,11 @@
         <f t="shared" si="8"/>
         <v>0.4447508</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H154">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>35</v>
       </c>
@@ -4473,8 +4938,11 @@
         <f t="shared" si="8"/>
         <v>0.68167297000000004</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H155">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>35</v>
       </c>
@@ -4499,8 +4967,11 @@
         <f t="shared" si="8"/>
         <v>0.59064804000000004</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H156">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>-35</v>
       </c>
@@ -4525,8 +4996,11 @@
         <f t="shared" si="8"/>
         <v>0.44916884000000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H157">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>35</v>
       </c>
@@ -4551,8 +5025,11 @@
         <f t="shared" si="8"/>
         <v>0.68684692000000003</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H158">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>35</v>
       </c>
@@ -4577,8 +5054,11 @@
         <f t="shared" si="8"/>
         <v>0.40249853000000002</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H159">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>35</v>
       </c>
@@ -4603,8 +5083,11 @@
         <f t="shared" si="8"/>
         <v>0.45805563999999999</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H160">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>-35</v>
       </c>
@@ -4629,8 +5112,11 @@
         <f t="shared" si="8"/>
         <v>0.56077460999999995</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H161">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>35</v>
       </c>
@@ -4655,8 +5141,11 @@
         <f t="shared" si="8"/>
         <v>0.54350995000000002</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H162">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>-35</v>
       </c>
@@ -4681,8 +5170,11 @@
         <f t="shared" si="8"/>
         <v>0.45110127999999999</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H163">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>35</v>
       </c>
@@ -4707,8 +5199,11 @@
         <f t="shared" si="8"/>
         <v>0.42384996000000003</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H164">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>35</v>
       </c>
@@ -4733,8 +5228,11 @@
         <f t="shared" si="8"/>
         <v>0.54747687</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H165">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>35</v>
       </c>
@@ -4759,8 +5257,11 @@
         <f t="shared" si="8"/>
         <v>0.48570859</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H166">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>35</v>
       </c>
@@ -4785,8 +5286,11 @@
         <f t="shared" si="8"/>
         <v>0.66434086999999997</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H167">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>35</v>
       </c>
@@ -4811,8 +5315,11 @@
         <f t="shared" si="8"/>
         <v>0.63079845999999995</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H168">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>35</v>
       </c>
@@ -4837,8 +5344,11 @@
         <f t="shared" si="8"/>
         <v>0.50398734999999995</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H169">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>35</v>
       </c>
@@ -4863,8 +5373,11 @@
         <f t="shared" si="8"/>
         <v>0.53886416000000004</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H170">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>-35</v>
       </c>
@@ -4889,8 +5402,11 @@
         <f t="shared" si="8"/>
         <v>0.58713245999999997</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H171">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>35</v>
       </c>
@@ -4915,8 +5431,11 @@
         <f t="shared" si="8"/>
         <v>0.49047043000000001</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H172">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>35</v>
       </c>
@@ -4941,8 +5460,11 @@
         <f t="shared" si="8"/>
         <v>0.51503083999999999</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H173">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>35</v>
       </c>
@@ -4967,8 +5489,11 @@
         <f t="shared" si="8"/>
         <v>0.43609984000000002</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H174">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>35</v>
       </c>
@@ -4993,8 +5518,11 @@
         <f t="shared" si="8"/>
         <v>0.50390796999999998</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H175">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>35</v>
       </c>
@@ -5019,8 +5547,11 @@
         <f t="shared" si="8"/>
         <v>0.62066703999999995</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H176">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>35</v>
       </c>
@@ -5045,8 +5576,11 @@
         <f t="shared" si="8"/>
         <v>0.44615827000000002</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H177">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>35</v>
       </c>
@@ -5071,8 +5605,11 @@
         <f t="shared" si="8"/>
         <v>0.65799962999999995</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H178">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>35</v>
       </c>
@@ -5097,8 +5634,11 @@
         <f t="shared" si="8"/>
         <v>0.41584472</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H179">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>35</v>
       </c>
@@ -5123,8 +5663,11 @@
         <f t="shared" si="8"/>
         <v>0.53496129000000003</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H180">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>-35</v>
       </c>
@@ -5149,8 +5692,11 @@
         <f t="shared" si="8"/>
         <v>0.69077425000000003</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H181">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>35</v>
       </c>
@@ -5175,8 +5721,11 @@
         <f t="shared" si="8"/>
         <v>0.53407875999999999</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H182">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>-35</v>
       </c>
@@ -5201,8 +5750,11 @@
         <f t="shared" si="8"/>
         <v>0.56592841000000005</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H183">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>35</v>
       </c>
@@ -5227,8 +5779,11 @@
         <f t="shared" si="8"/>
         <v>0.64160669000000004</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H184">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>35</v>
       </c>
@@ -5253,8 +5808,11 @@
         <f t="shared" si="8"/>
         <v>0.66507950000000005</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H185">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>-35</v>
       </c>
@@ -5279,8 +5837,11 @@
         <f t="shared" si="8"/>
         <v>0.65692503999999996</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H186">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>-35</v>
       </c>
@@ -5305,8 +5866,11 @@
         <f t="shared" si="8"/>
         <v>0.51631821</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H187">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>35</v>
       </c>
@@ -5331,8 +5895,11 @@
         <f t="shared" si="8"/>
         <v>0.47328706999999998</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H188">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>35</v>
       </c>
@@ -5357,8 +5924,11 @@
         <f t="shared" si="8"/>
         <v>0.56900499000000004</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H189">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>35</v>
       </c>
@@ -5383,8 +5953,11 @@
         <f t="shared" si="8"/>
         <v>0.48230626999999998</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H190">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>35</v>
       </c>
@@ -5409,8 +5982,11 @@
         <f t="shared" si="8"/>
         <v>0.47441337</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H191">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>35</v>
       </c>
@@ -5435,8 +6011,11 @@
         <f t="shared" si="8"/>
         <v>0.48133880000000001</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H192">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>-35</v>
       </c>
@@ -5461,8 +6040,11 @@
         <f t="shared" si="8"/>
         <v>0.51611481999999997</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H193">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>35</v>
       </c>
@@ -5487,8 +6069,11 @@
         <f t="shared" si="8"/>
         <v>0.54902810999999996</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H194">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>35</v>
       </c>
@@ -5513,8 +6098,11 @@
         <f t="shared" ref="G195:G258" si="11">C195</f>
         <v>0.63675029000000005</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H195">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>-35</v>
       </c>
@@ -5539,8 +6127,11 @@
         <f t="shared" si="11"/>
         <v>0.58048833</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H196">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>-35</v>
       </c>
@@ -5565,8 +6156,11 @@
         <f t="shared" si="11"/>
         <v>0.47439133999999999</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H197">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>-35</v>
       </c>
@@ -5591,8 +6185,11 @@
         <f t="shared" si="11"/>
         <v>0.40662199999999998</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H198">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>-35</v>
       </c>
@@ -5617,8 +6214,11 @@
         <f t="shared" si="11"/>
         <v>0.40731210000000001</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H199">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>35</v>
       </c>
@@ -5643,8 +6243,11 @@
         <f t="shared" si="11"/>
         <v>0.63901337999999996</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H200">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>35</v>
       </c>
@@ -5669,8 +6272,11 @@
         <f t="shared" si="11"/>
         <v>0.54623721000000003</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H201">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>-35</v>
       </c>
@@ -5695,8 +6301,11 @@
         <f t="shared" si="11"/>
         <v>0.4077597</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H202">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>35</v>
       </c>
@@ -5721,8 +6330,11 @@
         <f t="shared" si="11"/>
         <v>0.43013875000000001</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H203">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>-35</v>
       </c>
@@ -5747,8 +6359,11 @@
         <f t="shared" si="11"/>
         <v>0.62426128000000003</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H204">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>-35</v>
       </c>
@@ -5773,8 +6388,11 @@
         <f t="shared" si="11"/>
         <v>0.60776034000000001</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H205">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>35</v>
       </c>
@@ -5799,8 +6417,11 @@
         <f t="shared" si="11"/>
         <v>0.58133597999999997</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H206">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>-35</v>
       </c>
@@ -5825,8 +6446,11 @@
         <f t="shared" si="11"/>
         <v>0.63630927999999998</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H207">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>35</v>
       </c>
@@ -5851,8 +6475,11 @@
         <f t="shared" si="11"/>
         <v>0.52413719999999997</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H208">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>35</v>
       </c>
@@ -5877,8 +6504,11 @@
         <f t="shared" si="11"/>
         <v>0.41098704000000003</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H209">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>-35</v>
       </c>
@@ -5903,8 +6533,11 @@
         <f t="shared" si="11"/>
         <v>0.46667057000000001</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H210">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>-35</v>
       </c>
@@ -5929,8 +6562,11 @@
         <f t="shared" si="11"/>
         <v>0.41708389000000001</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H211">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>-35</v>
       </c>
@@ -5955,8 +6591,11 @@
         <f t="shared" si="11"/>
         <v>0.52563859999999996</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H212">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>-35</v>
       </c>
@@ -5981,8 +6620,11 @@
         <f t="shared" si="11"/>
         <v>0.42233746</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H213">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>35</v>
       </c>
@@ -6007,8 +6649,11 @@
         <f t="shared" si="11"/>
         <v>0.49234346000000001</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H214">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>-35</v>
       </c>
@@ -6033,8 +6678,11 @@
         <f t="shared" si="11"/>
         <v>0.47983228</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H215">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>35</v>
       </c>
@@ -6059,8 +6707,11 @@
         <f t="shared" si="11"/>
         <v>0.56098855000000003</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H216">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>35</v>
       </c>
@@ -6085,8 +6736,11 @@
         <f t="shared" si="11"/>
         <v>0.44119835000000002</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H217">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>35</v>
       </c>
@@ -6111,8 +6765,11 @@
         <f t="shared" si="11"/>
         <v>0.69417700999999998</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H218">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>35</v>
       </c>
@@ -6137,8 +6794,11 @@
         <f t="shared" si="11"/>
         <v>0.41949594000000001</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H219">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>35</v>
       </c>
@@ -6163,8 +6823,11 @@
         <f t="shared" si="11"/>
         <v>0.64167412000000001</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H220">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>-35</v>
       </c>
@@ -6189,8 +6852,11 @@
         <f t="shared" si="11"/>
         <v>0.46488845000000001</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H221">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>-35</v>
       </c>
@@ -6215,8 +6881,11 @@
         <f t="shared" si="11"/>
         <v>0.60801718000000005</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H222">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>35</v>
       </c>
@@ -6241,8 +6910,11 @@
         <f t="shared" si="11"/>
         <v>0.51607048</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H223">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>-35</v>
       </c>
@@ -6267,8 +6939,11 @@
         <f t="shared" si="11"/>
         <v>0.46160742999999999</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H224">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>35</v>
       </c>
@@ -6293,8 +6968,11 @@
         <f t="shared" si="11"/>
         <v>0.68648266000000002</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H225">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>35</v>
       </c>
@@ -6319,8 +6997,11 @@
         <f t="shared" si="11"/>
         <v>0.48875818999999998</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H226">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>35</v>
       </c>
@@ -6345,8 +7026,11 @@
         <f t="shared" si="11"/>
         <v>0.58026807000000002</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H227">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>-35</v>
       </c>
@@ -6371,8 +7055,11 @@
         <f t="shared" si="11"/>
         <v>0.55074920000000005</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H228">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>-35</v>
       </c>
@@ -6397,8 +7084,11 @@
         <f t="shared" si="11"/>
         <v>0.47791789000000001</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H229">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>-35</v>
       </c>
@@ -6423,8 +7113,11 @@
         <f t="shared" si="11"/>
         <v>0.44124227900000002</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H230">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>35</v>
       </c>
@@ -6449,8 +7142,11 @@
         <f t="shared" si="11"/>
         <v>0.45303873</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H231">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>-35</v>
       </c>
@@ -6475,8 +7171,11 @@
         <f t="shared" si="11"/>
         <v>0.57906807999999999</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H232">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>35</v>
       </c>
@@ -6501,8 +7200,11 @@
         <f t="shared" si="11"/>
         <v>0.69360942999999997</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H233">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>-35</v>
       </c>
@@ -6527,8 +7229,11 @@
         <f t="shared" si="11"/>
         <v>0.43398555999999999</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H234">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>35</v>
       </c>
@@ -6553,8 +7258,11 @@
         <f t="shared" si="11"/>
         <v>0.63072897999999999</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H235">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>-35</v>
       </c>
@@ -6579,8 +7287,11 @@
         <f t="shared" si="11"/>
         <v>0.60221924999999998</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H236">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>35</v>
       </c>
@@ -6605,8 +7316,11 @@
         <f t="shared" si="11"/>
         <v>0.51653941999999997</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H237">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>35</v>
       </c>
@@ -6631,8 +7345,11 @@
         <f t="shared" si="11"/>
         <v>0.50798520999999996</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H238">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>35</v>
       </c>
@@ -6657,8 +7374,11 @@
         <f t="shared" si="11"/>
         <v>0.45456608999999998</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H239">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>35</v>
       </c>
@@ -6683,8 +7403,11 @@
         <f t="shared" si="11"/>
         <v>0.59756149000000003</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H240">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>35</v>
       </c>
@@ -6709,8 +7432,11 @@
         <f t="shared" si="11"/>
         <v>0.45513902000000001</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H241">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>35</v>
       </c>
@@ -6735,8 +7461,11 @@
         <f t="shared" si="11"/>
         <v>0.56268563999999999</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H242">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>35</v>
       </c>
@@ -6761,8 +7490,11 @@
         <f t="shared" si="11"/>
         <v>0.47635378</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H243">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>35</v>
       </c>
@@ -6787,8 +7519,11 @@
         <f t="shared" si="11"/>
         <v>0.56632716000000005</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H244">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>35</v>
       </c>
@@ -6813,8 +7548,11 @@
         <f t="shared" si="11"/>
         <v>0.41793408999999998</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H245">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>-35</v>
       </c>
@@ -6839,8 +7577,11 @@
         <f t="shared" si="11"/>
         <v>0.54869221999999995</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H246">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>-35</v>
       </c>
@@ -6865,8 +7606,11 @@
         <f t="shared" si="11"/>
         <v>0.51450333999999998</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H247">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>-35</v>
       </c>
@@ -6891,8 +7635,11 @@
         <f t="shared" si="11"/>
         <v>0.44689842000000002</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H248">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>-35</v>
       </c>
@@ -6917,8 +7664,11 @@
         <f t="shared" si="11"/>
         <v>0.62202553999999999</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H249">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>-35</v>
       </c>
@@ -6943,8 +7693,11 @@
         <f t="shared" si="11"/>
         <v>0.58991921000000003</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H250">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>-35</v>
       </c>
@@ -6969,8 +7722,11 @@
         <f t="shared" si="11"/>
         <v>0.50059292</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H251">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>-35</v>
       </c>
@@ -6995,8 +7751,11 @@
         <f t="shared" si="11"/>
         <v>0.64392815999999997</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H252">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>-35</v>
       </c>
@@ -7021,8 +7780,11 @@
         <f t="shared" si="11"/>
         <v>0.54745142999999996</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H253">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>-35</v>
       </c>
@@ -7047,8 +7809,11 @@
         <f t="shared" si="11"/>
         <v>0.47874262000000001</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H254">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>-35</v>
       </c>
@@ -7073,8 +7838,11 @@
         <f t="shared" si="11"/>
         <v>0.58636752000000003</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H255">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>35</v>
       </c>
@@ -7099,8 +7867,11 @@
         <f t="shared" si="11"/>
         <v>0.44448653999999999</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H256">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>-35</v>
       </c>
@@ -7125,8 +7896,11 @@
         <f t="shared" si="11"/>
         <v>0.53882247000000005</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H257">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>35</v>
       </c>
@@ -7151,8 +7925,11 @@
         <f t="shared" si="11"/>
         <v>0.59603740000000005</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H258">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>-35</v>
       </c>
@@ -7177,8 +7954,11 @@
         <f t="shared" ref="G259:G322" si="14">C259</f>
         <v>0.45362637</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H259">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>-35</v>
       </c>
@@ -7203,8 +7983,11 @@
         <f t="shared" si="14"/>
         <v>0.52071898000000005</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H260">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>-35</v>
       </c>
@@ -7229,8 +8012,11 @@
         <f t="shared" si="14"/>
         <v>0.46953243</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H261">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>-35</v>
       </c>
@@ -7255,8 +8041,11 @@
         <f t="shared" si="14"/>
         <v>0.40871073000000002</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H262">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>-35</v>
       </c>
@@ -7281,8 +8070,11 @@
         <f t="shared" si="14"/>
         <v>0.53915402999999995</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H263">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>-35</v>
       </c>
@@ -7307,8 +8099,11 @@
         <f t="shared" si="14"/>
         <v>0.41172282999999998</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H264">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>-35</v>
       </c>
@@ -7333,8 +8128,11 @@
         <f t="shared" si="14"/>
         <v>0.69348014000000002</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H265">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>35</v>
       </c>
@@ -7359,8 +8157,11 @@
         <f t="shared" si="14"/>
         <v>0.68937857999999996</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H266">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>35</v>
       </c>
@@ -7385,8 +8186,11 @@
         <f t="shared" si="14"/>
         <v>0.57892085000000004</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H267">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>35</v>
       </c>
@@ -7411,8 +8215,11 @@
         <f t="shared" si="14"/>
         <v>0.53543105999999996</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H268">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>35</v>
       </c>
@@ -7437,8 +8244,11 @@
         <f t="shared" si="14"/>
         <v>0.44315544000000001</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H269">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>35</v>
       </c>
@@ -7463,8 +8273,11 @@
         <f t="shared" si="14"/>
         <v>0.54268983000000004</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H270">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>35</v>
       </c>
@@ -7489,8 +8302,11 @@
         <f t="shared" si="14"/>
         <v>0.51122637000000004</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H271">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>-35</v>
       </c>
@@ -7515,8 +8331,11 @@
         <f t="shared" si="14"/>
         <v>0.53353561999999999</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H272">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>35</v>
       </c>
@@ -7541,8 +8360,11 @@
         <f t="shared" si="14"/>
         <v>0.64729484000000004</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H273">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>35</v>
       </c>
@@ -7567,8 +8389,11 @@
         <f t="shared" si="14"/>
         <v>0.42125447999999999</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H274">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>35</v>
       </c>
@@ -7593,8 +8418,11 @@
         <f t="shared" si="14"/>
         <v>0.41446705</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H275">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>35</v>
       </c>
@@ -7619,8 +8447,11 @@
         <f t="shared" si="14"/>
         <v>0.46090186999999999</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H276">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>35</v>
       </c>
@@ -7645,8 +8476,11 @@
         <f t="shared" si="14"/>
         <v>0.69197067999999995</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H277">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>35</v>
       </c>
@@ -7671,8 +8505,11 @@
         <f t="shared" si="14"/>
         <v>0.62908116999999997</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H278">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>35</v>
       </c>
@@ -7697,8 +8534,11 @@
         <f t="shared" si="14"/>
         <v>0.43127585000000002</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H279">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>35</v>
       </c>
@@ -7723,8 +8563,11 @@
         <f t="shared" si="14"/>
         <v>0.47788149000000002</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H280">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>35</v>
       </c>
@@ -7749,8 +8592,11 @@
         <f t="shared" si="14"/>
         <v>0.46455500999999999</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H281">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>35</v>
       </c>
@@ -7775,8 +8621,11 @@
         <f t="shared" si="14"/>
         <v>0.42977590999999998</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H282">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>35</v>
       </c>
@@ -7801,8 +8650,11 @@
         <f t="shared" si="14"/>
         <v>0.63201202999999995</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H283">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>35</v>
       </c>
@@ -7827,8 +8679,11 @@
         <f t="shared" si="14"/>
         <v>0.59523333</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H284">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>35</v>
       </c>
@@ -7853,8 +8708,11 @@
         <f t="shared" si="14"/>
         <v>0.43507314000000002</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H285">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>35</v>
       </c>
@@ -7879,8 +8737,11 @@
         <f t="shared" si="14"/>
         <v>0.63475429999999999</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H286">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>35</v>
       </c>
@@ -7905,8 +8766,11 @@
         <f t="shared" si="14"/>
         <v>0.46046974000000002</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H287">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>35</v>
       </c>
@@ -7931,8 +8795,11 @@
         <f t="shared" si="14"/>
         <v>0.57857155000000005</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H288">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>35</v>
       </c>
@@ -7957,8 +8824,11 @@
         <f t="shared" si="14"/>
         <v>0.50099740000000004</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H289">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>35</v>
       </c>
@@ -7983,8 +8853,11 @@
         <f t="shared" si="14"/>
         <v>0.60497281999999997</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H290">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>35</v>
       </c>
@@ -8009,8 +8882,11 @@
         <f t="shared" si="14"/>
         <v>0.40631557000000001</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H291">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>-35</v>
       </c>
@@ -8035,8 +8911,11 @@
         <f t="shared" si="14"/>
         <v>0.66802289999999998</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H292">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>35</v>
       </c>
@@ -8061,8 +8940,11 @@
         <f t="shared" si="14"/>
         <v>0.40806934</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H293">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>35</v>
       </c>
@@ -8087,8 +8969,11 @@
         <f t="shared" si="14"/>
         <v>0.54405261999999999</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H294">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>35</v>
       </c>
@@ -8113,8 +8998,11 @@
         <f t="shared" si="14"/>
         <v>0.66122340000000002</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H295">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>35</v>
       </c>
@@ -8139,8 +9027,11 @@
         <f t="shared" si="14"/>
         <v>0.52232413</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H296">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>35</v>
       </c>
@@ -8165,8 +9056,11 @@
         <f t="shared" si="14"/>
         <v>0.50883029000000002</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H297">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>-35</v>
       </c>
@@ -8191,8 +9085,11 @@
         <f t="shared" si="14"/>
         <v>0.49389337999999999</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H298">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>35</v>
       </c>
@@ -8217,8 +9114,11 @@
         <f t="shared" si="14"/>
         <v>0.43708021000000002</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H299">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>35</v>
       </c>
@@ -8243,8 +9143,11 @@
         <f t="shared" si="14"/>
         <v>0.54965607000000005</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H300">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>-35</v>
       </c>
@@ -8269,8 +9172,11 @@
         <f t="shared" si="14"/>
         <v>0.53159113000000002</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H301">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>-35</v>
       </c>
@@ -8295,8 +9201,11 @@
         <f t="shared" si="14"/>
         <v>0.60832491</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H302">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>-35</v>
       </c>
@@ -8321,8 +9230,11 @@
         <f t="shared" si="14"/>
         <v>0.54393575000000005</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H303">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>-35</v>
       </c>
@@ -8347,8 +9259,11 @@
         <f t="shared" si="14"/>
         <v>0.55451371999999999</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H304">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>-35</v>
       </c>
@@ -8373,8 +9288,11 @@
         <f t="shared" si="14"/>
         <v>0.49973992</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H305">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>-35</v>
       </c>
@@ -8399,8 +9317,11 @@
         <f t="shared" si="14"/>
         <v>0.64036367999999999</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H306">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>-35</v>
       </c>
@@ -8425,8 +9346,11 @@
         <f t="shared" si="14"/>
         <v>0.58350367999999997</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H307">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>35</v>
       </c>
@@ -8451,8 +9375,11 @@
         <f t="shared" si="14"/>
         <v>0.47428319000000002</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H308">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>-35</v>
       </c>
@@ -8477,8 +9404,11 @@
         <f t="shared" si="14"/>
         <v>0.41871837000000001</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H309">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>-35</v>
       </c>
@@ -8503,8 +9433,11 @@
         <f t="shared" si="14"/>
         <v>0.41897541999999999</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H310">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>35</v>
       </c>
@@ -8529,8 +9462,11 @@
         <f t="shared" si="14"/>
         <v>0.43910759999999999</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H311">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>-35</v>
       </c>
@@ -8555,8 +9491,11 @@
         <f t="shared" si="14"/>
         <v>0.45295732</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H312">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>-35</v>
       </c>
@@ -8581,8 +9520,11 @@
         <f t="shared" si="14"/>
         <v>0.42961223999999998</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H313">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>-35</v>
       </c>
@@ -8607,8 +9549,11 @@
         <f t="shared" si="14"/>
         <v>0.61660327999999998</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H314">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>35</v>
       </c>
@@ -8633,8 +9578,11 @@
         <f t="shared" si="14"/>
         <v>0.65559157999999995</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H315">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>-35</v>
       </c>
@@ -8659,8 +9607,11 @@
         <f t="shared" si="14"/>
         <v>0.48018988000000001</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H316">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>-35</v>
       </c>
@@ -8685,8 +9636,11 @@
         <f t="shared" si="14"/>
         <v>0.67710227000000001</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H317">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>-35</v>
       </c>
@@ -8711,8 +9665,11 @@
         <f t="shared" si="14"/>
         <v>0.64623827</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H318">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>-35</v>
       </c>
@@ -8737,8 +9694,11 @@
         <f t="shared" si="14"/>
         <v>0.63398096999999998</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H319">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>-35</v>
       </c>
@@ -8763,8 +9723,11 @@
         <f t="shared" si="14"/>
         <v>0.46750408999999998</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H320">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>35</v>
       </c>
@@ -8789,8 +9752,11 @@
         <f t="shared" si="14"/>
         <v>0.62866827000000003</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H321">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>-35</v>
       </c>
@@ -8815,8 +9781,11 @@
         <f t="shared" si="14"/>
         <v>0.63943744999999996</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H322">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>35</v>
       </c>
@@ -8841,8 +9810,11 @@
         <f t="shared" ref="G323:G386" si="17">C323</f>
         <v>0.46880274</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H323">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>-35</v>
       </c>
@@ -8867,8 +9839,11 @@
         <f t="shared" si="17"/>
         <v>0.45338568000000001</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H324">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>-35</v>
       </c>
@@ -8893,8 +9868,11 @@
         <f t="shared" si="17"/>
         <v>0.51671942999999998</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H325">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>35</v>
       </c>
@@ -8919,8 +9897,11 @@
         <f t="shared" si="17"/>
         <v>0.47489661</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H326">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>-35</v>
       </c>
@@ -8945,8 +9926,11 @@
         <f t="shared" si="17"/>
         <v>0.42265051999999997</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H327">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>-35</v>
       </c>
@@ -8971,8 +9955,11 @@
         <f t="shared" si="17"/>
         <v>0.40690641</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H328">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>-35</v>
       </c>
@@ -8997,8 +9984,11 @@
         <f t="shared" si="17"/>
         <v>0.45830067000000002</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H329">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>-35</v>
       </c>
@@ -9023,8 +10013,11 @@
         <f t="shared" si="17"/>
         <v>0.51451159999999996</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H330">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>-35</v>
       </c>
@@ -9049,8 +10042,11 @@
         <f t="shared" si="17"/>
         <v>0.45414067000000002</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H331">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>35</v>
       </c>
@@ -9075,8 +10071,11 @@
         <f t="shared" si="17"/>
         <v>0.54458466000000005</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H332">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>-35</v>
       </c>
@@ -9101,8 +10100,11 @@
         <f t="shared" si="17"/>
         <v>0.58028002000000001</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H333">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>-35</v>
       </c>
@@ -9127,8 +10129,11 @@
         <f t="shared" si="17"/>
         <v>0.67346874999999995</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H334">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>-35</v>
       </c>
@@ -9153,8 +10158,11 @@
         <f t="shared" si="17"/>
         <v>0.42647930000000001</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H335">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>-35</v>
       </c>
@@ -9179,8 +10187,11 @@
         <f t="shared" si="17"/>
         <v>0.69165147000000005</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H336">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>-35</v>
       </c>
@@ -9205,8 +10216,11 @@
         <f t="shared" si="17"/>
         <v>0.63768756000000004</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H337">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>-35</v>
       </c>
@@ -9231,8 +10245,11 @@
         <f t="shared" si="17"/>
         <v>0.60427220999999998</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H338">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>-35</v>
       </c>
@@ -9257,8 +10274,11 @@
         <f t="shared" si="17"/>
         <v>0.48110625000000001</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H339">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>-35</v>
       </c>
@@ -9283,8 +10303,11 @@
         <f t="shared" si="17"/>
         <v>0.67324123999999996</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H340">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>-35</v>
       </c>
@@ -9309,8 +10332,11 @@
         <f t="shared" si="17"/>
         <v>0.47352683000000001</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H341">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>35</v>
       </c>
@@ -9335,8 +10361,11 @@
         <f t="shared" si="17"/>
         <v>0.63018987000000004</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H342">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>-35</v>
       </c>
@@ -9361,8 +10390,11 @@
         <f t="shared" si="17"/>
         <v>0.60090969000000005</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H343">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>-35</v>
       </c>
@@ -9387,8 +10419,11 @@
         <f t="shared" si="17"/>
         <v>0.57368277999999995</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H344">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>-35</v>
       </c>
@@ -9413,8 +10448,11 @@
         <f t="shared" si="17"/>
         <v>0.40233519000000001</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H345">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>-35</v>
       </c>
@@ -9439,8 +10477,11 @@
         <f t="shared" si="17"/>
         <v>0.47037275000000001</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H346">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>-35</v>
       </c>
@@ -9465,8 +10506,11 @@
         <f t="shared" si="17"/>
         <v>0.50322529000000005</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H347">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>-35</v>
       </c>
@@ -9491,8 +10535,11 @@
         <f t="shared" si="17"/>
         <v>0.54062768999999999</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H348">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>-35</v>
       </c>
@@ -9517,8 +10564,11 @@
         <f t="shared" si="17"/>
         <v>0.67437144000000004</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H349">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>-35</v>
       </c>
@@ -9543,8 +10593,11 @@
         <f t="shared" si="17"/>
         <v>0.528053789</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H350">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>-35</v>
       </c>
@@ -9569,8 +10622,11 @@
         <f t="shared" si="17"/>
         <v>0.51105162999999998</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H351">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>-35</v>
       </c>
@@ -9595,8 +10651,11 @@
         <f t="shared" si="17"/>
         <v>0.45436673</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H352">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>35</v>
       </c>
@@ -9621,8 +10680,11 @@
         <f t="shared" si="17"/>
         <v>0.47725400000000001</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H353">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>-35</v>
       </c>
@@ -9647,8 +10709,11 @@
         <f t="shared" si="17"/>
         <v>0.45280175</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H354">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>-35</v>
       </c>
@@ -9673,8 +10738,11 @@
         <f t="shared" si="17"/>
         <v>0.44316434999999998</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H355">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>-35</v>
       </c>
@@ -9699,8 +10767,11 @@
         <f t="shared" si="17"/>
         <v>0.55867708999999999</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H356">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>-35</v>
       </c>
@@ -9725,8 +10796,11 @@
         <f t="shared" si="17"/>
         <v>0.45886684999999999</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H357">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>35</v>
       </c>
@@ -9751,8 +10825,11 @@
         <f t="shared" si="17"/>
         <v>0.44125168999999997</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H358">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>35</v>
       </c>
@@ -9777,8 +10854,11 @@
         <f t="shared" si="17"/>
         <v>0.53513498999999998</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H359">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>35</v>
       </c>
@@ -9803,8 +10883,11 @@
         <f t="shared" si="17"/>
         <v>0.53882043000000002</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H360">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>-35</v>
       </c>
@@ -9829,8 +10912,11 @@
         <f t="shared" si="17"/>
         <v>0.49356303000000001</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H361">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>35</v>
       </c>
@@ -9855,8 +10941,11 @@
         <f t="shared" si="17"/>
         <v>0.40847698999999998</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H362">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>35</v>
       </c>
@@ -9881,8 +10970,11 @@
         <f t="shared" si="17"/>
         <v>0.47337704000000003</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H363">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>35</v>
       </c>
@@ -9907,8 +10999,11 @@
         <f t="shared" si="17"/>
         <v>0.69659307000000004</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H364">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>35</v>
       </c>
@@ -9933,8 +11028,11 @@
         <f t="shared" si="17"/>
         <v>0.61628640999999995</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H365">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>-35</v>
       </c>
@@ -9959,8 +11057,11 @@
         <f t="shared" si="17"/>
         <v>0.63143978000000001</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H366">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>-35</v>
       </c>
@@ -9985,8 +11086,11 @@
         <f t="shared" si="17"/>
         <v>0.47092353999999997</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H367">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>35</v>
       </c>
@@ -10011,8 +11115,11 @@
         <f t="shared" si="17"/>
         <v>0.44279645000000001</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H368">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>35</v>
       </c>
@@ -10037,8 +11144,11 @@
         <f t="shared" si="17"/>
         <v>0.52190440999999999</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H369">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>-35</v>
       </c>
@@ -10063,8 +11173,11 @@
         <f t="shared" si="17"/>
         <v>0.55702059999999998</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H370">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>35</v>
       </c>
@@ -10089,8 +11202,11 @@
         <f t="shared" si="17"/>
         <v>0.65939868000000001</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H371">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>35</v>
       </c>
@@ -10115,8 +11231,11 @@
         <f t="shared" si="17"/>
         <v>0.56994056000000004</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H372">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>-35</v>
       </c>
@@ -10141,8 +11260,11 @@
         <f t="shared" si="17"/>
         <v>0.61141118000000005</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H373">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>35</v>
       </c>
@@ -10167,8 +11289,11 @@
         <f t="shared" si="17"/>
         <v>0.61977340999999997</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H374">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>35</v>
       </c>
@@ -10193,8 +11318,11 @@
         <f t="shared" si="17"/>
         <v>0.57162636</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H375">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>35</v>
       </c>
@@ -10219,8 +11347,11 @@
         <f t="shared" si="17"/>
         <v>0.58225415000000003</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H376">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>35</v>
       </c>
@@ -10245,8 +11376,11 @@
         <f t="shared" si="17"/>
         <v>0.63307233399999996</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H377">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>35</v>
       </c>
@@ -10271,8 +11405,11 @@
         <f t="shared" si="17"/>
         <v>0.59916915000000004</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H378">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>35</v>
       </c>
@@ -10297,8 +11434,11 @@
         <f t="shared" si="17"/>
         <v>0.41374978000000001</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H379">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>35</v>
       </c>
@@ -10323,8 +11463,11 @@
         <f t="shared" si="17"/>
         <v>0.44211309999999998</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H380">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>35</v>
       </c>
@@ -10349,8 +11492,11 @@
         <f t="shared" si="17"/>
         <v>0.69635587200000004</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H381">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>35</v>
       </c>
@@ -10375,8 +11521,11 @@
         <f t="shared" si="17"/>
         <v>0.57086064000000003</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H382">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>35</v>
       </c>
@@ -10401,8 +11550,11 @@
         <f t="shared" si="17"/>
         <v>0.65116947000000003</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H383">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>35</v>
       </c>
@@ -10427,8 +11579,11 @@
         <f t="shared" si="17"/>
         <v>0.58435676000000003</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H384">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>35</v>
       </c>
@@ -10453,8 +11608,11 @@
         <f t="shared" si="17"/>
         <v>0.50741917999999997</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H385">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>35</v>
       </c>
@@ -10479,8 +11637,11 @@
         <f t="shared" si="17"/>
         <v>0.58528091000000004</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H386">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>35</v>
       </c>
@@ -10505,8 +11666,11 @@
         <f t="shared" ref="G387:G450" si="20">C387</f>
         <v>0.46460056</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H387">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>35</v>
       </c>
@@ -10531,8 +11695,11 @@
         <f t="shared" si="20"/>
         <v>0.47852798000000002</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H388">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>35</v>
       </c>
@@ -10557,8 +11724,11 @@
         <f t="shared" si="20"/>
         <v>0.50160603000000004</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H389">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>35</v>
       </c>
@@ -10583,8 +11753,11 @@
         <f t="shared" si="20"/>
         <v>0.42468366000000002</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H390">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>-35</v>
       </c>
@@ -10609,8 +11782,11 @@
         <f t="shared" si="20"/>
         <v>0.56249400999999999</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H391">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>35</v>
       </c>
@@ -10635,8 +11811,11 @@
         <f t="shared" si="20"/>
         <v>0.45828591000000002</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H392">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>35</v>
       </c>
@@ -10661,8 +11840,11 @@
         <f t="shared" si="20"/>
         <v>0.40937146000000002</v>
       </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H393">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>35</v>
       </c>
@@ -10687,8 +11869,11 @@
         <f t="shared" si="20"/>
         <v>0.44724203000000001</v>
       </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H394">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>-35</v>
       </c>
@@ -10713,8 +11898,11 @@
         <f t="shared" si="20"/>
         <v>0.47930489999999998</v>
       </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H395">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>35</v>
       </c>
@@ -10739,8 +11927,11 @@
         <f t="shared" si="20"/>
         <v>0.41689258000000001</v>
       </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H396">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>35</v>
       </c>
@@ -10765,8 +11956,11 @@
         <f t="shared" si="20"/>
         <v>0.45648471000000002</v>
       </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H397">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>35</v>
       </c>
@@ -10791,8 +11985,11 @@
         <f t="shared" si="20"/>
         <v>0.57096557999999997</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H398">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>35</v>
       </c>
@@ -10817,8 +12014,11 @@
         <f t="shared" si="20"/>
         <v>0.63135943000000005</v>
       </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H399">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>35</v>
       </c>
@@ -10843,8 +12043,11 @@
         <f t="shared" si="20"/>
         <v>0.59006541999999995</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H400">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>35</v>
       </c>
@@ -10869,8 +12072,11 @@
         <f t="shared" si="20"/>
         <v>0.46334054000000002</v>
       </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H401">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>35</v>
       </c>
@@ -10895,8 +12101,11 @@
         <f t="shared" si="20"/>
         <v>0.49042479999999999</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H402">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>-35</v>
       </c>
@@ -10921,8 +12130,11 @@
         <f t="shared" si="20"/>
         <v>0.61878761000000004</v>
       </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H403">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>-35</v>
       </c>
@@ -10947,8 +12159,11 @@
         <f t="shared" si="20"/>
         <v>0.48345609</v>
       </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H404">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>35</v>
       </c>
@@ -10973,8 +12188,11 @@
         <f t="shared" si="20"/>
         <v>0.50526937000000005</v>
       </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H405">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>35</v>
       </c>
@@ -10999,8 +12217,11 @@
         <f t="shared" si="20"/>
         <v>0.50454051</v>
       </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H406">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>35</v>
       </c>
@@ -11025,8 +12246,11 @@
         <f t="shared" si="20"/>
         <v>0.48078132000000001</v>
       </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H407">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>35</v>
       </c>
@@ -11051,8 +12275,11 @@
         <f t="shared" si="20"/>
         <v>0.63061984999999998</v>
       </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H408">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>35</v>
       </c>
@@ -11077,8 +12304,11 @@
         <f t="shared" si="20"/>
         <v>0.40302144000000001</v>
       </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H409">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>35</v>
       </c>
@@ -11103,8 +12333,11 @@
         <f t="shared" si="20"/>
         <v>0.61032905000000004</v>
       </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H410">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>35</v>
       </c>
@@ -11129,8 +12362,11 @@
         <f t="shared" si="20"/>
         <v>0.50514110999999995</v>
       </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H411">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>35</v>
       </c>
@@ -11155,8 +12391,11 @@
         <f t="shared" si="20"/>
         <v>0.66417864000000004</v>
       </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H412">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>35</v>
       </c>
@@ -11181,8 +12420,11 @@
         <f t="shared" si="20"/>
         <v>0.45816483000000002</v>
       </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H413">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>35</v>
       </c>
@@ -11207,8 +12449,11 @@
         <f t="shared" si="20"/>
         <v>0.60980570000000001</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H414">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>35</v>
       </c>
@@ -11233,8 +12478,11 @@
         <f t="shared" si="20"/>
         <v>0.65487466000000005</v>
       </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H415">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>35</v>
       </c>
@@ -11259,8 +12507,11 @@
         <f t="shared" si="20"/>
         <v>0.53473702999999995</v>
       </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H416">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>35</v>
       </c>
@@ -11285,8 +12536,11 @@
         <f t="shared" si="20"/>
         <v>0.60850143999999995</v>
       </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H417">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>35</v>
       </c>
@@ -11311,8 +12565,11 @@
         <f t="shared" si="20"/>
         <v>0.58798351999999998</v>
       </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H418">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>-35</v>
       </c>
@@ -11337,8 +12594,11 @@
         <f t="shared" si="20"/>
         <v>0.42621892</v>
       </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H419">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>35</v>
       </c>
@@ -11363,8 +12623,11 @@
         <f t="shared" si="20"/>
         <v>0.46521678999999999</v>
       </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H420">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>35</v>
       </c>
@@ -11389,8 +12652,11 @@
         <f t="shared" si="20"/>
         <v>0.56674824999999995</v>
       </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H421">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>35</v>
       </c>
@@ -11415,8 +12681,11 @@
         <f t="shared" si="20"/>
         <v>0.52437906999999995</v>
       </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H422">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>35</v>
       </c>
@@ -11441,8 +12710,11 @@
         <f t="shared" si="20"/>
         <v>0.57786680999999995</v>
       </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H423">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>-35</v>
       </c>
@@ -11467,8 +12739,11 @@
         <f t="shared" si="20"/>
         <v>0.50429394000000005</v>
       </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H424">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>35</v>
       </c>
@@ -11493,8 +12768,11 @@
         <f t="shared" si="20"/>
         <v>0.40757251999999999</v>
       </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H425">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>-35</v>
       </c>
@@ -11519,8 +12797,11 @@
         <f t="shared" si="20"/>
         <v>0.42901159999999999</v>
       </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H426">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>-35</v>
       </c>
@@ -11545,8 +12826,11 @@
         <f t="shared" si="20"/>
         <v>0.62319972000000001</v>
       </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H427">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>-35</v>
       </c>
@@ -11571,8 +12855,11 @@
         <f t="shared" si="20"/>
         <v>0.53637078000000005</v>
       </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H428">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>35</v>
       </c>
@@ -11597,8 +12884,11 @@
         <f t="shared" si="20"/>
         <v>0.66218547000000005</v>
       </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H429">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>-35</v>
       </c>
@@ -11623,8 +12913,11 @@
         <f t="shared" si="20"/>
         <v>0.53790822000000005</v>
       </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H430">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>-35</v>
       </c>
@@ -11649,8 +12942,11 @@
         <f t="shared" si="20"/>
         <v>0.46881998000000003</v>
       </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H431">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>-35</v>
       </c>
@@ -11675,8 +12971,11 @@
         <f t="shared" si="20"/>
         <v>0.47832458</v>
       </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H432">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>-35</v>
       </c>
@@ -11701,8 +13000,11 @@
         <f t="shared" si="20"/>
         <v>0.59814553999999998</v>
       </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H433">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>-35</v>
       </c>
@@ -11727,8 +13029,11 @@
         <f t="shared" si="20"/>
         <v>0.65408219000000001</v>
       </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H434">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>-35</v>
       </c>
@@ -11753,8 +13058,11 @@
         <f t="shared" si="20"/>
         <v>0.61523344000000002</v>
       </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H435">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>-35</v>
       </c>
@@ -11779,8 +13087,11 @@
         <f t="shared" si="20"/>
         <v>0.69028988999999996</v>
       </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H436">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>-35</v>
       </c>
@@ -11805,8 +13116,11 @@
         <f t="shared" si="20"/>
         <v>0.46767736999999998</v>
       </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H437">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>35</v>
       </c>
@@ -11831,8 +13145,11 @@
         <f t="shared" si="20"/>
         <v>0.50095959999999995</v>
       </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H438">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>-35</v>
       </c>
@@ -11857,8 +13174,11 @@
         <f t="shared" si="20"/>
         <v>0.55314759999999996</v>
       </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H439">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>-35</v>
       </c>
@@ -11883,8 +13203,11 @@
         <f t="shared" si="20"/>
         <v>0.55197368000000002</v>
       </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H440">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>-35</v>
       </c>
@@ -11909,8 +13232,11 @@
         <f t="shared" si="20"/>
         <v>0.61700573000000003</v>
       </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H441">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>-35</v>
       </c>
@@ -11935,8 +13261,11 @@
         <f t="shared" si="20"/>
         <v>0.51221240000000001</v>
       </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H442">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>-35</v>
       </c>
@@ -11961,8 +13290,11 @@
         <f t="shared" si="20"/>
         <v>0.53547040000000001</v>
       </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H443">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>35</v>
       </c>
@@ -11987,8 +13319,11 @@
         <f t="shared" si="20"/>
         <v>0.42857979000000002</v>
       </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H444">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>-35</v>
       </c>
@@ -12013,8 +13348,11 @@
         <f t="shared" si="20"/>
         <v>0.58474928999999998</v>
       </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H445">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>-35</v>
       </c>
@@ -12039,8 +13377,11 @@
         <f t="shared" si="20"/>
         <v>0.43380436</v>
       </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H446">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>35</v>
       </c>
@@ -12065,8 +13406,11 @@
         <f t="shared" si="20"/>
         <v>0.67538419999999999</v>
       </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H447">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>-35</v>
       </c>
@@ -12091,8 +13435,11 @@
         <f t="shared" si="20"/>
         <v>0.67698497999999996</v>
       </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H448">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>-35</v>
       </c>
@@ -12117,8 +13464,11 @@
         <f t="shared" si="20"/>
         <v>0.61818483000000002</v>
       </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H449">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>-35</v>
       </c>
@@ -12143,8 +13493,11 @@
         <f t="shared" si="20"/>
         <v>0.61323150999999998</v>
       </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H450">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>-35</v>
       </c>
@@ -12169,8 +13522,11 @@
         <f t="shared" ref="G451:G514" si="23">C451</f>
         <v>0.45464545000000001</v>
       </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H451">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>-35</v>
       </c>
@@ -12195,8 +13551,11 @@
         <f t="shared" si="23"/>
         <v>0.55739662999999995</v>
       </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H452">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>-35</v>
       </c>
@@ -12221,8 +13580,11 @@
         <f t="shared" si="23"/>
         <v>0.55042994999999995</v>
       </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H453">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>-35</v>
       </c>
@@ -12247,8 +13609,11 @@
         <f t="shared" si="23"/>
         <v>0.54651612000000005</v>
       </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H454">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>-35</v>
       </c>
@@ -12273,8 +13638,11 @@
         <f t="shared" si="23"/>
         <v>0.47386165000000002</v>
       </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H455">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>-35</v>
       </c>
@@ -12299,8 +13667,11 @@
         <f t="shared" si="23"/>
         <v>0.59205870000000005</v>
       </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H456">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>-35</v>
       </c>
@@ -12325,8 +13696,11 @@
         <f t="shared" si="23"/>
         <v>0.4074101</v>
       </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H457">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>-35</v>
       </c>
@@ -12351,8 +13725,11 @@
         <f t="shared" si="23"/>
         <v>0.63598332000000002</v>
       </c>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H458">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>-35</v>
       </c>
@@ -12377,8 +13754,11 @@
         <f t="shared" si="23"/>
         <v>0.42163573999999998</v>
       </c>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H459">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>35</v>
       </c>
@@ -12403,8 +13783,11 @@
         <f t="shared" si="23"/>
         <v>0.59217019000000004</v>
       </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H460">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>-35</v>
       </c>
@@ -12429,8 +13812,11 @@
         <f t="shared" si="23"/>
         <v>0.60384212999999998</v>
       </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H461">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>35</v>
       </c>
@@ -12455,8 +13841,11 @@
         <f t="shared" si="23"/>
         <v>0.56339872999999996</v>
       </c>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H462">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>35</v>
       </c>
@@ -12481,8 +13870,11 @@
         <f t="shared" si="23"/>
         <v>0.40318515999999999</v>
       </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H463">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>35</v>
       </c>
@@ -12507,8 +13899,11 @@
         <f t="shared" si="23"/>
         <v>0.60741409999999996</v>
       </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H464">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>35</v>
       </c>
@@ -12533,8 +13928,11 @@
         <f t="shared" si="23"/>
         <v>0.40378414000000001</v>
       </c>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H465">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>-35</v>
       </c>
@@ -12559,8 +13957,11 @@
         <f t="shared" si="23"/>
         <v>0.47399806</v>
       </c>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H466">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>35</v>
       </c>
@@ -12585,8 +13986,11 @@
         <f t="shared" si="23"/>
         <v>0.44763820999999998</v>
       </c>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H467">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>35</v>
       </c>
@@ -12611,8 +14015,11 @@
         <f t="shared" si="23"/>
         <v>0.40875908999999999</v>
       </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H468">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>-35</v>
       </c>
@@ -12637,8 +14044,11 @@
         <f t="shared" si="23"/>
         <v>0.40746548999999999</v>
       </c>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H469">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>35</v>
       </c>
@@ -12663,8 +14073,11 @@
         <f t="shared" si="23"/>
         <v>0.49131543</v>
       </c>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H470">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>35</v>
       </c>
@@ -12689,8 +14102,11 @@
         <f t="shared" si="23"/>
         <v>0.46679236000000002</v>
       </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H471">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>-35</v>
       </c>
@@ -12715,8 +14131,11 @@
         <f t="shared" si="23"/>
         <v>0.40613394000000003</v>
       </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H472">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>35</v>
       </c>
@@ -12741,8 +14160,11 @@
         <f t="shared" si="23"/>
         <v>0.65342789000000001</v>
       </c>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H473">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>-35</v>
       </c>
@@ -12767,8 +14189,11 @@
         <f t="shared" si="23"/>
         <v>0.62023006000000003</v>
       </c>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H474">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>35</v>
       </c>
@@ -12793,8 +14218,11 @@
         <f t="shared" si="23"/>
         <v>0.52656238</v>
       </c>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H475">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>35</v>
       </c>
@@ -12819,8 +14247,11 @@
         <f t="shared" si="23"/>
         <v>0.41420456</v>
       </c>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H476">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>35</v>
       </c>
@@ -12845,8 +14276,11 @@
         <f t="shared" si="23"/>
         <v>0.40295235000000001</v>
       </c>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H477">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>-35</v>
       </c>
@@ -12871,8 +14305,11 @@
         <f t="shared" si="23"/>
         <v>0.42179445999999998</v>
       </c>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H478">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>35</v>
       </c>
@@ -12897,8 +14334,11 @@
         <f t="shared" si="23"/>
         <v>0.68344152000000002</v>
       </c>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H479">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>-35</v>
       </c>
@@ -12923,8 +14363,11 @@
         <f t="shared" si="23"/>
         <v>0.44131256000000002</v>
       </c>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H480">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>35</v>
       </c>
@@ -12949,8 +14392,11 @@
         <f t="shared" si="23"/>
         <v>0.49234916000000001</v>
       </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H481">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>35</v>
       </c>
@@ -12975,8 +14421,11 @@
         <f t="shared" si="23"/>
         <v>0.51530657000000002</v>
       </c>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H482">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>35</v>
       </c>
@@ -13001,8 +14450,11 @@
         <f t="shared" si="23"/>
         <v>0.57098554000000001</v>
       </c>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H483">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>35</v>
       </c>
@@ -13027,8 +14479,11 @@
         <f t="shared" si="23"/>
         <v>0.55109403999999995</v>
       </c>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H484">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>35</v>
       </c>
@@ -13053,8 +14508,11 @@
         <f t="shared" si="23"/>
         <v>0.42397825</v>
       </c>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H485">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>35</v>
       </c>
@@ -13079,8 +14537,11 @@
         <f t="shared" si="23"/>
         <v>0.55017104999999999</v>
       </c>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H486">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>35</v>
       </c>
@@ -13105,8 +14566,11 @@
         <f t="shared" si="23"/>
         <v>0.46451986000000001</v>
       </c>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H487">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>35</v>
       </c>
@@ -13131,8 +14595,11 @@
         <f t="shared" si="23"/>
         <v>0.48112885</v>
       </c>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H488">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>-35</v>
       </c>
@@ -13157,8 +14624,11 @@
         <f t="shared" si="23"/>
         <v>0.46861279</v>
       </c>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H489">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>-35</v>
       </c>
@@ -13183,8 +14653,11 @@
         <f t="shared" si="23"/>
         <v>0.48929961999999999</v>
       </c>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H490">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>35</v>
       </c>
@@ -13209,8 +14682,11 @@
         <f t="shared" si="23"/>
         <v>0.48949621999999998</v>
       </c>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H491">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>35</v>
       </c>
@@ -13235,8 +14711,11 @@
         <f t="shared" si="23"/>
         <v>0.61327092000000005</v>
       </c>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H492">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>35</v>
       </c>
@@ -13261,8 +14740,11 @@
         <f t="shared" si="23"/>
         <v>0.55042652999999997</v>
       </c>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H493">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>35</v>
       </c>
@@ -13287,8 +14769,11 @@
         <f t="shared" si="23"/>
         <v>0.42794812999999998</v>
       </c>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H494">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>35</v>
       </c>
@@ -13313,8 +14798,11 @@
         <f t="shared" si="23"/>
         <v>0.65469604000000003</v>
       </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H495">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>35</v>
       </c>
@@ -13339,8 +14827,11 @@
         <f t="shared" si="23"/>
         <v>0.52110953999999998</v>
       </c>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H496">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>35</v>
       </c>
@@ -13365,8 +14856,11 @@
         <f t="shared" si="23"/>
         <v>0.42795506</v>
       </c>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H497">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>-35</v>
       </c>
@@ -13391,8 +14885,11 @@
         <f t="shared" si="23"/>
         <v>0.65278133500000002</v>
       </c>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H498">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>-35</v>
       </c>
@@ -13417,8 +14914,11 @@
         <f t="shared" si="23"/>
         <v>0.54065534999999998</v>
       </c>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H499">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>35</v>
       </c>
@@ -13443,8 +14943,11 @@
         <f t="shared" si="23"/>
         <v>0.50683831000000001</v>
       </c>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H500">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>-35</v>
       </c>
@@ -13469,8 +14972,11 @@
         <f t="shared" si="23"/>
         <v>0.53698754999999998</v>
       </c>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H501">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>-35</v>
       </c>
@@ -13495,8 +15001,11 @@
         <f t="shared" si="23"/>
         <v>0.65587099000000004</v>
       </c>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H502">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>-35</v>
       </c>
@@ -13521,8 +15030,11 @@
         <f t="shared" si="23"/>
         <v>0.54480702000000003</v>
       </c>
-    </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H503">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>-35</v>
       </c>
@@ -13547,8 +15059,11 @@
         <f t="shared" si="23"/>
         <v>0.42764487000000001</v>
       </c>
-    </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H504">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>35</v>
       </c>
@@ -13573,8 +15088,11 @@
         <f t="shared" si="23"/>
         <v>0.53757659000000002</v>
       </c>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H505">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>-35</v>
       </c>
@@ -13599,8 +15117,11 @@
         <f t="shared" si="23"/>
         <v>0.63096774</v>
       </c>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H506">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>-35</v>
       </c>
@@ -13625,8 +15146,11 @@
         <f t="shared" si="23"/>
         <v>0.41985550999999999</v>
       </c>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H507">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>-35</v>
       </c>
@@ -13651,8 +15175,11 @@
         <f t="shared" si="23"/>
         <v>0.68605194000000003</v>
       </c>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H508">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>35</v>
       </c>
@@ -13677,8 +15204,11 @@
         <f t="shared" si="23"/>
         <v>0.45004209000000001</v>
       </c>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H509">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>-35</v>
       </c>
@@ -13703,8 +15233,11 @@
         <f t="shared" si="23"/>
         <v>0.61326404000000001</v>
       </c>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H510">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>-35</v>
       </c>
@@ -13729,8 +15262,11 @@
         <f t="shared" si="23"/>
         <v>0.56125175999999999</v>
       </c>
-    </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H511">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>-35</v>
       </c>
@@ -13755,8 +15291,11 @@
         <f t="shared" si="23"/>
         <v>0.51332021000000005</v>
       </c>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H512">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>-35</v>
       </c>
@@ -13781,8 +15320,11 @@
         <f t="shared" si="23"/>
         <v>0.49167939999999999</v>
       </c>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H513">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>-35</v>
       </c>
@@ -13807,8 +15349,11 @@
         <f t="shared" si="23"/>
         <v>0.49995739</v>
       </c>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H514">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>-35</v>
       </c>
@@ -13833,8 +15378,11 @@
         <f t="shared" ref="G515:G578" si="26">C515</f>
         <v>0.44109895999999998</v>
       </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H515">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>-35</v>
       </c>
@@ -13859,8 +15407,11 @@
         <f t="shared" si="26"/>
         <v>0.48709636000000001</v>
       </c>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H516">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>-35</v>
       </c>
@@ -13885,8 +15436,11 @@
         <f t="shared" si="26"/>
         <v>0.51171091999999996</v>
       </c>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H517">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>-35</v>
       </c>
@@ -13911,8 +15465,11 @@
         <f t="shared" si="26"/>
         <v>0.54441757000000002</v>
       </c>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H518">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>-35</v>
       </c>
@@ -13937,8 +15494,11 @@
         <f t="shared" si="26"/>
         <v>0.53538545999999998</v>
       </c>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H519">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>-35</v>
       </c>
@@ -13963,8 +15523,11 @@
         <f t="shared" si="26"/>
         <v>0.40888277000000001</v>
       </c>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H520">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>-35</v>
       </c>
@@ -13989,8 +15552,11 @@
         <f t="shared" si="26"/>
         <v>0.41290339999999998</v>
       </c>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H521">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>-35</v>
       </c>
@@ -14015,8 +15581,11 @@
         <f t="shared" si="26"/>
         <v>0.40231211</v>
       </c>
-    </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H522">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>-35</v>
       </c>
@@ -14041,8 +15610,11 @@
         <f t="shared" si="26"/>
         <v>0.54001695000000005</v>
       </c>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H523">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>-35</v>
       </c>
@@ -14067,8 +15639,11 @@
         <f t="shared" si="26"/>
         <v>0.56079058999999998</v>
       </c>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H524">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>-35</v>
       </c>
@@ -14093,8 +15668,11 @@
         <f t="shared" si="26"/>
         <v>0.53486359000000006</v>
       </c>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H525">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>35</v>
       </c>
@@ -14119,8 +15697,11 @@
         <f t="shared" si="26"/>
         <v>0.69495616000000004</v>
       </c>
-    </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H526">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>-35</v>
       </c>
@@ -14145,8 +15726,11 @@
         <f t="shared" si="26"/>
         <v>0.44248186</v>
       </c>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H527">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>-35</v>
       </c>
@@ -14171,8 +15755,11 @@
         <f t="shared" si="26"/>
         <v>0.67790476</v>
       </c>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H528">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>-35</v>
       </c>
@@ -14197,8 +15784,11 @@
         <f t="shared" si="26"/>
         <v>0.68243668000000002</v>
       </c>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H529">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>35</v>
       </c>
@@ -14223,8 +15813,11 @@
         <f t="shared" si="26"/>
         <v>0.52558570000000004</v>
       </c>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H530">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>-35</v>
       </c>
@@ -14249,8 +15842,11 @@
         <f t="shared" si="26"/>
         <v>0.44671785000000003</v>
       </c>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H531">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>-35</v>
       </c>
@@ -14275,8 +15871,11 @@
         <f t="shared" si="26"/>
         <v>0.53810720999999995</v>
       </c>
-    </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H532">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>-35</v>
       </c>
@@ -14301,8 +15900,11 @@
         <f t="shared" si="26"/>
         <v>0.41451626000000003</v>
       </c>
-    </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H533">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>35</v>
       </c>
@@ -14327,8 +15929,11 @@
         <f t="shared" si="26"/>
         <v>0.58463262999999999</v>
       </c>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H534">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>-35</v>
       </c>
@@ -14353,8 +15958,11 @@
         <f t="shared" si="26"/>
         <v>0.64096414000000002</v>
       </c>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H535">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>-35</v>
       </c>
@@ -14379,8 +15987,11 @@
         <f t="shared" si="26"/>
         <v>0.68803974000000001</v>
       </c>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H536">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>-35</v>
       </c>
@@ -14405,8 +16016,11 @@
         <f t="shared" si="26"/>
         <v>0.64157165000000005</v>
       </c>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H537">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>-35</v>
       </c>
@@ -14431,8 +16045,11 @@
         <f t="shared" si="26"/>
         <v>0.57737753999999997</v>
       </c>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H538">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>-35</v>
       </c>
@@ -14457,8 +16074,11 @@
         <f t="shared" si="26"/>
         <v>0.55028767999999995</v>
       </c>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H539">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>-35</v>
       </c>
@@ -14483,8 +16103,11 @@
         <f t="shared" si="26"/>
         <v>0.40410751</v>
       </c>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H540">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>-35</v>
       </c>
@@ -14509,8 +16132,11 @@
         <f t="shared" si="26"/>
         <v>0.63487821</v>
       </c>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H541">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>35</v>
       </c>
@@ -14535,8 +16161,11 @@
         <f t="shared" si="26"/>
         <v>0.52584081000000005</v>
       </c>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H542">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>35</v>
       </c>
@@ -14561,8 +16190,11 @@
         <f t="shared" si="26"/>
         <v>0.64512042999999997</v>
       </c>
-    </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H543">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>35</v>
       </c>
@@ -14587,8 +16219,11 @@
         <f t="shared" si="26"/>
         <v>0.41026810000000002</v>
       </c>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H544">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>-35</v>
       </c>
@@ -14613,8 +16248,11 @@
         <f t="shared" si="26"/>
         <v>0.63234776000000004</v>
       </c>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H545">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>-35</v>
       </c>
@@ -14639,8 +16277,11 @@
         <f t="shared" si="26"/>
         <v>0.60036959999999995</v>
       </c>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H546">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>-35</v>
       </c>
@@ -14665,8 +16306,11 @@
         <f t="shared" si="26"/>
         <v>0.46401957999999999</v>
       </c>
-    </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H547">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>-35</v>
       </c>
@@ -14691,8 +16335,11 @@
         <f t="shared" si="26"/>
         <v>0.40902479000000003</v>
       </c>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H548">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>-35</v>
       </c>
@@ -14717,8 +16364,11 @@
         <f t="shared" si="26"/>
         <v>0.54934567000000001</v>
       </c>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H549">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>-35</v>
       </c>
@@ -14743,8 +16393,11 @@
         <f t="shared" si="26"/>
         <v>0.42381997999999999</v>
       </c>
-    </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H550">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>-35</v>
       </c>
@@ -14769,8 +16422,11 @@
         <f t="shared" si="26"/>
         <v>0.50099161999999997</v>
       </c>
-    </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H551">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>35</v>
       </c>
@@ -14795,8 +16451,11 @@
         <f t="shared" si="26"/>
         <v>0.47004024999999999</v>
       </c>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H552">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>35</v>
       </c>
@@ -14821,8 +16480,11 @@
         <f t="shared" si="26"/>
         <v>0.44673527000000002</v>
       </c>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H553">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>35</v>
       </c>
@@ -14847,8 +16509,11 @@
         <f t="shared" si="26"/>
         <v>0.69186367999999998</v>
       </c>
-    </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H554">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>35</v>
       </c>
@@ -14873,8 +16538,11 @@
         <f t="shared" si="26"/>
         <v>0.66214209000000002</v>
       </c>
-    </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H555">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>-35</v>
       </c>
@@ -14899,8 +16567,11 @@
         <f t="shared" si="26"/>
         <v>0.53240167999999999</v>
       </c>
-    </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H556">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>-35</v>
       </c>
@@ -14925,8 +16596,11 @@
         <f t="shared" si="26"/>
         <v>0.46931401</v>
       </c>
-    </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H557">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>-35</v>
       </c>
@@ -14951,8 +16625,11 @@
         <f t="shared" si="26"/>
         <v>0.61061021999999998</v>
       </c>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H558">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>-35</v>
       </c>
@@ -14977,8 +16654,11 @@
         <f t="shared" si="26"/>
         <v>0.61114279999999999</v>
       </c>
-    </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H559">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>35</v>
       </c>
@@ -15003,8 +16683,11 @@
         <f t="shared" si="26"/>
         <v>0.43053288000000001</v>
       </c>
-    </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H560">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>-35</v>
       </c>
@@ -15029,8 +16712,11 @@
         <f t="shared" si="26"/>
         <v>0.42137031000000003</v>
       </c>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H561">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>35</v>
       </c>
@@ -15055,8 +16741,11 @@
         <f t="shared" si="26"/>
         <v>0.45368592000000002</v>
       </c>
-    </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H562">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>35</v>
       </c>
@@ -15081,8 +16770,11 @@
         <f t="shared" si="26"/>
         <v>0.47866362000000001</v>
       </c>
-    </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H563">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>35</v>
       </c>
@@ -15107,8 +16799,11 @@
         <f t="shared" si="26"/>
         <v>0.55183793000000003</v>
       </c>
-    </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H564">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>35</v>
       </c>
@@ -15133,8 +16828,11 @@
         <f t="shared" si="26"/>
         <v>0.40541431</v>
       </c>
-    </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H565">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>35</v>
       </c>
@@ -15159,8 +16857,11 @@
         <f t="shared" si="26"/>
         <v>0.49190785999999997</v>
       </c>
-    </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H566">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>35</v>
       </c>
@@ -15185,8 +16886,11 @@
         <f t="shared" si="26"/>
         <v>0.40487761</v>
       </c>
-    </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H567">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>35</v>
       </c>
@@ -15211,8 +16915,11 @@
         <f t="shared" si="26"/>
         <v>0.63060225999999997</v>
       </c>
-    </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H568">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>35</v>
       </c>
@@ -15237,8 +16944,11 @@
         <f t="shared" si="26"/>
         <v>0.40690707999999998</v>
       </c>
-    </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H569">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>35</v>
       </c>
@@ -15263,8 +16973,11 @@
         <f t="shared" si="26"/>
         <v>0.60897053999999995</v>
       </c>
-    </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H570">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>35</v>
       </c>
@@ -15289,8 +17002,11 @@
         <f t="shared" si="26"/>
         <v>0.43978689999999998</v>
       </c>
-    </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H571">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>-35</v>
       </c>
@@ -15315,8 +17031,11 @@
         <f t="shared" si="26"/>
         <v>0.63604704999999995</v>
       </c>
-    </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H572">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>35</v>
       </c>
@@ -15341,8 +17060,11 @@
         <f t="shared" si="26"/>
         <v>0.40506742000000001</v>
       </c>
-    </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H573">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>35</v>
       </c>
@@ -15367,8 +17089,11 @@
         <f t="shared" si="26"/>
         <v>0.42340931999999998</v>
       </c>
-    </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H574">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>35</v>
       </c>
@@ -15393,8 +17118,11 @@
         <f t="shared" si="26"/>
         <v>0.65737217999999997</v>
       </c>
-    </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H575">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>35</v>
       </c>
@@ -15419,8 +17147,11 @@
         <f t="shared" si="26"/>
         <v>0.47806562000000002</v>
       </c>
-    </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H576">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>35</v>
       </c>
@@ -15445,8 +17176,11 @@
         <f t="shared" si="26"/>
         <v>0.57887116999999999</v>
       </c>
-    </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H577">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>-35</v>
       </c>
@@ -15471,8 +17205,11 @@
         <f t="shared" si="26"/>
         <v>0.52175024999999997</v>
       </c>
-    </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H578">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>35</v>
       </c>
@@ -15497,8 +17234,11 @@
         <f t="shared" ref="G579:G601" si="29">C579</f>
         <v>0.48971961000000003</v>
       </c>
-    </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H579">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>-35</v>
       </c>
@@ -15523,8 +17263,11 @@
         <f t="shared" si="29"/>
         <v>0.48631792000000001</v>
       </c>
-    </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H580">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>35</v>
       </c>
@@ -15549,8 +17292,11 @@
         <f t="shared" si="29"/>
         <v>0.63690150999999995</v>
       </c>
-    </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H581">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>35</v>
       </c>
@@ -15575,8 +17321,11 @@
         <f t="shared" si="29"/>
         <v>0.58523422000000003</v>
       </c>
-    </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H582">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>-35</v>
       </c>
@@ -15601,8 +17350,11 @@
         <f t="shared" si="29"/>
         <v>0.52215814999999999</v>
       </c>
-    </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H583">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>35</v>
       </c>
@@ -15627,8 +17379,11 @@
         <f t="shared" si="29"/>
         <v>0.53140984999999996</v>
       </c>
-    </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H584">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>35</v>
       </c>
@@ -15653,8 +17408,11 @@
         <f t="shared" si="29"/>
         <v>0.59751268000000002</v>
       </c>
-    </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H585">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>35</v>
       </c>
@@ -15679,8 +17437,11 @@
         <f t="shared" si="29"/>
         <v>0.41194577999999998</v>
       </c>
-    </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H586">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>35</v>
       </c>
@@ -15705,8 +17466,11 @@
         <f t="shared" si="29"/>
         <v>0.54943626999999995</v>
       </c>
-    </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H587">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>35</v>
       </c>
@@ -15731,8 +17495,11 @@
         <f t="shared" si="29"/>
         <v>0.41408289999999998</v>
       </c>
-    </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H588">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>35</v>
       </c>
@@ -15757,8 +17524,11 @@
         <f t="shared" si="29"/>
         <v>0.56198300000000001</v>
       </c>
-    </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H589">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>35</v>
       </c>
@@ -15783,8 +17553,11 @@
         <f t="shared" si="29"/>
         <v>0.42872290000000002</v>
       </c>
-    </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H590">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>-35</v>
       </c>
@@ -15809,8 +17582,11 @@
         <f t="shared" si="29"/>
         <v>0.52839712999999999</v>
       </c>
-    </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H591">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>-35</v>
       </c>
@@ -15835,8 +17611,11 @@
         <f t="shared" si="29"/>
         <v>0.43646834000000001</v>
       </c>
-    </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H592">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>-35</v>
       </c>
@@ -15861,8 +17640,11 @@
         <f t="shared" si="29"/>
         <v>0.65054361999999999</v>
       </c>
-    </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H593">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>35</v>
       </c>
@@ -15887,8 +17669,11 @@
         <f t="shared" si="29"/>
         <v>0.57058206</v>
       </c>
-    </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H594">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>35</v>
       </c>
@@ -15913,8 +17698,11 @@
         <f t="shared" si="29"/>
         <v>0.60852340999999999</v>
       </c>
-    </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H595">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>-35</v>
       </c>
@@ -15939,8 +17727,11 @@
         <f t="shared" si="29"/>
         <v>0.42611283999999999</v>
       </c>
-    </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H596">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>-35</v>
       </c>
@@ -15965,8 +17756,11 @@
         <f t="shared" si="29"/>
         <v>0.6728035</v>
       </c>
-    </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H597">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>-35</v>
       </c>
@@ -15991,8 +17785,11 @@
         <f t="shared" si="29"/>
         <v>0.45739612000000002</v>
       </c>
-    </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H598">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>-35</v>
       </c>
@@ -16017,8 +17814,11 @@
         <f t="shared" si="29"/>
         <v>0.49695041000000001</v>
       </c>
-    </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H599">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>-35</v>
       </c>
@@ -16043,8 +17843,11 @@
         <f t="shared" si="29"/>
         <v>0.46659309999999998</v>
       </c>
-    </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H600">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>-35</v>
       </c>
@@ -16068,6 +17871,9 @@
       <c r="G601" s="2">
         <f t="shared" si="29"/>
         <v>0.46515971</v>
+      </c>
+      <c r="H601">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
